--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84504CF7-E28A-43BF-ACB2-75682562437A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC09BD-9997-47DE-A4CC-A1C0071090B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Datum</t>
   </si>
@@ -197,13 +197,46 @@
   <si>
     <t>5.4.2020</t>
   </si>
+  <si>
+    <t>13.4.2020</t>
+  </si>
+  <si>
+    <t>14.4.2020</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>15.4.2020</t>
+  </si>
+  <si>
+    <t>ErrorTrap fixen</t>
+  </si>
+  <si>
+    <t>16.4.2020</t>
+  </si>
+  <si>
+    <t>Booking vom Würfel schreiben</t>
+  </si>
+  <si>
+    <t>17.4.2020</t>
+  </si>
+  <si>
+    <t>DiceService more secure</t>
+  </si>
+  <si>
+    <t>18.4.2020</t>
+  </si>
+  <si>
+    <t>19.4.2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -318,10 +351,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -649,7 +682,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -889,7 +922,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -945,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -983,32 +1016,102 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="6"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="6"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="6"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="6"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="6"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="6"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="6"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="6"/>
@@ -4928,7 +5031,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC09BD-9997-47DE-A4CC-A1C0071090B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494CD48-9437-44B8-9363-ADBF58948932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>19.4.2020</t>
+  </si>
+  <si>
+    <t>20.4.2020</t>
+  </si>
+  <si>
+    <t>LV Einheit</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1114,12 +1120,32 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="6"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="6"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="6"/>
@@ -5031,7 +5057,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494CD48-9437-44B8-9363-ADBF58948932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508748D-7E72-459A-958B-AE2AEA1A6AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -235,6 +235,21 @@
   </si>
   <si>
     <t>LV Einheit</t>
+  </si>
+  <si>
+    <t>27.4.2020</t>
+  </si>
+  <si>
+    <t>23.4.2020</t>
+  </si>
+  <si>
+    <t>22.4.2020</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>24.4.2020</t>
   </si>
 </sst>
 </file>
@@ -688,7 +703,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1147,67 +1162,107 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="6"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4">
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="B37" s="6"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38" s="6"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" s="6"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40" s="6"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41" s="6"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42" s="6"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43" s="6"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44" s="6"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45" s="6"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46" s="6"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47" s="6"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:4">
       <c r="B48" s="6"/>
       <c r="D48" s="2"/>
     </row>
@@ -5057,7 +5112,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508748D-7E72-459A-958B-AE2AEA1A6AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA9863-B022-44D1-B7D1-A54EFD3FF1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>24.4.2020</t>
+  </si>
+  <si>
+    <t>28.4.2020</t>
+  </si>
+  <si>
+    <t>Bug fixes, User kann seine Buchungen ändern</t>
+  </si>
+  <si>
+    <t>30.4.2020</t>
+  </si>
+  <si>
+    <t>Feed items nur an Clients mit  verbundenen Cube &amp; Dice konfigurieren - Model korrekt anlegen</t>
+  </si>
+  <si>
+    <t>03.5.2020</t>
   </si>
 </sst>
 </file>
@@ -711,7 +726,7 @@
     <col min="1" max="1" width="10.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="80.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="31.5">
@@ -848,7 +863,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -904,7 +919,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -946,7 +961,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -1002,7 +1017,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -1058,7 +1073,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1114,7 +1129,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
@@ -1156,7 +1171,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>53</v>
@@ -1184,7 +1199,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -1212,23 +1227,53 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="6"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="6"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="6"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="6"/>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA9863-B022-44D1-B7D1-A54EFD3FF1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20703C45-CBC5-4EB9-87F8-B18C7F660622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>03.5.2020</t>
+  </si>
+  <si>
+    <t>04.5.2020</t>
+  </si>
+  <si>
+    <t>09.5.2020</t>
+  </si>
+  <si>
+    <t>11.5.2020</t>
+  </si>
+  <si>
+    <t>13.5.2020</t>
+  </si>
+  <si>
+    <t>Test Daten generieren</t>
+  </si>
+  <si>
+    <t>Client: Server Address and Password provided at Startup, Admin can see all statistics, Logging + View, Adapt Dice Friendly Name when configuring</t>
   </si>
 </sst>
 </file>
@@ -394,8 +412,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,21 +730,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1008"/>
+  <dimension ref="A1:D1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="31.5">
@@ -1276,28 +1294,88 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="6"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="6"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="6"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="6"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="6"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="6"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="6"/>
@@ -5150,6 +5228,14 @@
     <row r="1008" spans="2:4">
       <c r="B1008" s="6"/>
       <c r="D1008" s="2"/>
+    </row>
+    <row r="1009" spans="2:4">
+      <c r="B1009" s="6"/>
+      <c r="D1009" s="2"/>
+    </row>
+    <row r="1010" spans="2:4">
+      <c r="B1010" s="6"/>
+      <c r="D1010" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5162,7 +5248,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1008</xm:sqref>
+          <xm:sqref>C2:C1010</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5176,7 +5262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20703C45-CBC5-4EB9-87F8-B18C7F660622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C89D9-B605-4BA4-80AB-161D947EE4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>Datum</t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t>Client: Server Address and Password provided at Startup, Admin can see all statistics, Logging + View, Adapt Dice Friendly Name when configuring</t>
+  </si>
+  <si>
+    <t>17.5.2020</t>
+  </si>
+  <si>
+    <t>22.5.2020</t>
+  </si>
+  <si>
+    <t>18.5.2020</t>
+  </si>
+  <si>
+    <t>23.5.2020</t>
+  </si>
+  <si>
+    <t>24.5.2020</t>
+  </si>
+  <si>
+    <t>Bug fixes mit Bugsimilian</t>
   </si>
 </sst>
 </file>
@@ -730,13 +748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1010"/>
+  <dimension ref="A1:D1011"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1378,78 +1396,128 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="6"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="6"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="6"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="6"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="6"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="A48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" s="6"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="1:4">
       <c r="B52" s="6"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="1:4">
       <c r="B53" s="6"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="1:4">
       <c r="B54" s="6"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="1:4">
       <c r="B55" s="6"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="1:4">
       <c r="B56" s="6"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="1:4">
       <c r="B57" s="6"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:4">
       <c r="B58" s="6"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:4">
       <c r="B59" s="6"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="1:4">
       <c r="B60" s="6"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="1:4">
       <c r="B61" s="6"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="1:4">
       <c r="B62" s="6"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="1:4">
       <c r="B63" s="6"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="1:4">
       <c r="B64" s="6"/>
       <c r="D64" s="2"/>
     </row>
@@ -5236,6 +5304,10 @@
     <row r="1010" spans="2:4">
       <c r="B1010" s="6"/>
       <c r="D1010" s="2"/>
+    </row>
+    <row r="1011" spans="2:4">
+      <c r="B1011" s="6"/>
+      <c r="D1011" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5248,7 +5320,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1010</xm:sqref>
+          <xm:sqref>C2:C1011</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C89D9-B605-4BA4-80AB-161D947EE4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573020FF-42CF-4D04-9141-BF8BDA73D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>Datum</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Bug fixes mit Bugsimilian</t>
+  </si>
+  <si>
+    <t>5.5.2020</t>
+  </si>
+  <si>
+    <t>Fertigstellen von Abnahmetest</t>
+  </si>
+  <si>
+    <t>Testdrehbuch von Team 1</t>
   </si>
 </sst>
 </file>
@@ -748,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1011"/>
+  <dimension ref="A1:D1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1466,12 +1475,32 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="B51" s="6"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="B52" s="6"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="6"/>
@@ -5308,6 +5337,10 @@
     <row r="1011" spans="2:4">
       <c r="B1011" s="6"/>
       <c r="D1011" s="2"/>
+    </row>
+    <row r="1012" spans="2:4">
+      <c r="B1012" s="6"/>
+      <c r="D1012" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5320,7 +5353,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1011</xm:sqref>
+          <xm:sqref>C2:C1012</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573020FF-42CF-4D04-9141-BF8BDA73D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D17A32-180A-4DBF-B814-DBFD86F754F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -763,7 +763,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1482,7 +1482,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D17A32-180A-4DBF-B814-DBFD86F754F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0ECA48-3045-483D-AC39-7CAB0AFD6389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>Datum</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Testdrehbuch von Team 1</t>
+  </si>
+  <si>
+    <t>8.5.2020</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1503,8 +1506,18 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="B53" s="6"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="6"/>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0ECA48-3045-483D-AC39-7CAB0AFD6389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655EBC8-F056-42D3-970F-DA6EE5445C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>Datum</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>8.5.2020</t>
+  </si>
+  <si>
+    <t>9.5.2020</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1520,8 +1523,18 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="6"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="6"/>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6655EBC8-F056-42D3-970F-DA6EE5445C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BE7AD-1B50-467D-B47B-C72F1BBFC59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>Datum</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>9.5.2020</t>
+  </si>
+  <si>
+    <t>30.5.2020</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B51" s="6">
         <v>8.3333333333333329E-2</v>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BE7AD-1B50-467D-B47B-C72F1BBFC59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D1872-E25C-4C9E-8A1D-48382BEFDC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -303,22 +303,22 @@
     <t>Bug fixes mit Bugsimilian</t>
   </si>
   <si>
-    <t>5.5.2020</t>
-  </si>
-  <si>
     <t>Fertigstellen von Abnahmetest</t>
   </si>
   <si>
     <t>Testdrehbuch von Team 1</t>
   </si>
   <si>
-    <t>8.5.2020</t>
-  </si>
-  <si>
-    <t>9.5.2020</t>
-  </si>
-  <si>
     <t>30.5.2020</t>
+  </si>
+  <si>
+    <t>5.6.2020</t>
+  </si>
+  <si>
+    <t>8.6.2020</t>
+  </si>
+  <si>
+    <t>9.6.2020</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="6">
         <v>8.3333333333333329E-2</v>
@@ -1494,12 +1494,12 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52" s="6">
         <v>6.25E-2</v>
@@ -1508,12 +1508,12 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="6">
         <v>8.3333333333333329E-2</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="6">
         <v>4.1666666666666664E-2</v>

--- a/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
+++ b/docs/Timesheets/Timesheet-Maximilian-Suitner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\prodiga\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D1872-E25C-4C9E-8A1D-48382BEFDC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188FA49-7F89-429C-AD97-569E5ECAAC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>Datum</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>9.6.2020</t>
+  </si>
+  <si>
+    <t>15.6.2020</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1540,12 +1543,32 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="6"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="6"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="6"/>
@@ -5377,7 +5400,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
